--- a/Data_inputs/MISERS_PlanInfo_2015.xlsx
+++ b/Data_inputs/MISERS_PlanInfo_2015.xlsx
@@ -5500,7 +5500,7 @@
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5528,10 +5528,12 @@
       <c r="C4" s="121">
         <v>3.6739999999999999</v>
       </c>
-      <c r="D4" s="121"/>
+      <c r="D4" s="121">
+        <v>3.24</v>
+      </c>
       <c r="E4" s="123">
         <f>D4/C4</f>
-        <v>0</v>
+        <v>0.88187261839956455</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5554,10 +5556,12 @@
       <c r="C6" s="121">
         <v>16.239999999999998</v>
       </c>
-      <c r="D6" s="121"/>
+      <c r="D6" s="121">
+        <v>16.21</v>
+      </c>
       <c r="E6" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99815270935960609</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5608,10 +5612,7 @@
         <v>10.417</v>
       </c>
       <c r="D11" s="121"/>
-      <c r="E11" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E11" s="123"/>
     </row>
     <row r="12" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="125" t="s">
@@ -5621,21 +5622,23 @@
         <f>C11+0.144+0.159</f>
         <v>10.72</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="121">
+        <v>10.74</v>
+      </c>
+      <c r="E12" s="123">
+        <f t="shared" si="0"/>
+        <v>1.0018656716417911</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="121" t="s">
         <v>173</v>
       </c>
       <c r="C13" s="127">
-        <v>10731762400</v>
+        <v>10.73</v>
       </c>
       <c r="D13" s="121"/>
-      <c r="E13" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E13" s="123"/>
     </row>
     <row r="14" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="125" t="s">
@@ -5643,10 +5646,15 @@
       </c>
       <c r="C14" s="126">
         <f>C13+0.144+0.159</f>
-        <v>10731762400.302999</v>
-      </c>
-      <c r="D14" s="121"/>
-      <c r="E14" s="123"/>
+        <v>11.033000000000001</v>
+      </c>
+      <c r="D14" s="121">
+        <v>11.06</v>
+      </c>
+      <c r="E14" s="123">
+        <f t="shared" si="0"/>
+        <v>1.0024472038430163</v>
+      </c>
     </row>
     <row r="15" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="121"/>
@@ -5662,10 +5670,12 @@
         <f>C22*0.0738</f>
         <v>6.7158000000000009E-2</v>
       </c>
-      <c r="D16" s="121"/>
+      <c r="D16" s="121">
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="E16" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80407397480568199</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5675,8 +5685,13 @@
       <c r="C17" s="121">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="E17" s="123"/>
+      <c r="D17" s="121">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E17" s="123">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="121" t="s">
@@ -5685,10 +5700,12 @@
       <c r="C18" s="121">
         <v>0.53</v>
       </c>
-      <c r="D18" s="121"/>
+      <c r="D18" s="121">
+        <v>0.505</v>
+      </c>
       <c r="E18" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.95283018867924529</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5699,10 +5716,12 @@
         <f>C22*0.04</f>
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="D19" s="121"/>
+      <c r="D19" s="121">
+        <v>3.6499999999999998E-2</v>
+      </c>
       <c r="E19" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0027472527472527</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5731,10 +5750,12 @@
       <c r="C22" s="121">
         <v>0.91</v>
       </c>
-      <c r="D22" s="121"/>
+      <c r="D22" s="121">
+        <v>0.91300000000000003</v>
+      </c>
       <c r="E22" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0032967032967033</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5744,10 +5765,12 @@
       <c r="C23" s="121">
         <v>1.2649999999999999</v>
       </c>
-      <c r="D23" s="121"/>
+      <c r="D23" s="121">
+        <v>1.288</v>
+      </c>
       <c r="E23" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0181818181818183</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Data_inputs/MISERS_PlanInfo_2015.xlsx
+++ b/Data_inputs/MISERS_PlanInfo_2015.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="189">
   <si>
     <t>Notes</t>
   </si>
@@ -1122,12 +1122,6 @@
     <t>Assumptions we may need to think about  later</t>
   </si>
   <si>
-    <t>AV2016</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -1194,6 +1188,15 @@
 Amount recognized in each year:
 (10731762400 - 10416577282)/5=  63037024 
 </t>
+  </si>
+  <si>
+    <t>AV2016 (2015 year end)</t>
+  </si>
+  <si>
+    <t>Model 2015</t>
+  </si>
+  <si>
+    <t>2016 year end</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1456,6 +1459,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1463,7 +1475,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1811,6 +1823,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2157,62 +2172,18 @@
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>94421</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>18431</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63209153-BC87-42FD-B496-5DC324F57965}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7753350" y="428625"/>
-          <a:ext cx="6628571" cy="4952381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2227,7 +2198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="7581900"/>
+          <a:off x="7239000" y="7543800"/>
           <a:ext cx="6686550" cy="2647950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2707,15 +2678,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>94426</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>151607</xdr:rowOff>
+      <xdr:colOff>56326</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>189707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2731,6 +2702,50 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="6600825"/>
+          <a:ext cx="6590476" cy="6342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151571</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>94631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90642FCA-9918-4BB8-9ADE-A62183886823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
@@ -2738,8 +2753,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="4543425"/>
-          <a:ext cx="6590476" cy="6342857"/>
+          <a:off x="495300" y="12849225"/>
+          <a:ext cx="6628571" cy="4952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5497,33 +5512,37 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J28"/>
+  <dimension ref="B2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="121"/>
       <c r="C3" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="G3" s="130" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="122" t="s">
         <v>167</v>
-      </c>
-      <c r="E3" s="121" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="122" t="s">
-        <v>169</v>
       </c>
       <c r="C4" s="121">
         <v>3.6739999999999999</v>
@@ -5536,22 +5555,22 @@
         <v>0.88187261839956455</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="122" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" s="121">
         <v>12.483000000000001</v>
       </c>
       <c r="D5" s="121"/>
       <c r="E5" s="123">
-        <f t="shared" ref="E5:E24" si="0">D5/C5</f>
+        <f>D5/C5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="122" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="121">
         <v>16.239999999999998</v>
@@ -5560,13 +5579,13 @@
         <v>16.21</v>
       </c>
       <c r="E6" s="123">
-        <f t="shared" si="0"/>
+        <f>D6/C6</f>
         <v>0.99815270935960609</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="125" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C7" s="121">
         <v>12.483000000000001</v>
@@ -5574,22 +5593,22 @@
       <c r="D7" s="121"/>
       <c r="E7" s="123"/>
     </row>
-    <row r="8" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="125" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" s="121">
         <v>3.2869999999999999</v>
       </c>
       <c r="D8" s="121"/>
       <c r="E8" s="123">
-        <f t="shared" si="0"/>
+        <f>D8/C8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="125" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C9" s="121">
         <f>0.41+0.057</f>
@@ -5598,15 +5617,15 @@
       <c r="D9" s="121"/>
       <c r="E9" s="123"/>
     </row>
-    <row r="10" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="125"/>
       <c r="C10" s="121"/>
       <c r="D10" s="121"/>
       <c r="E10" s="123"/>
     </row>
-    <row r="11" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="121" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C11" s="121">
         <v>10.417</v>
@@ -5614,9 +5633,9 @@
       <c r="D11" s="121"/>
       <c r="E11" s="123"/>
     </row>
-    <row r="12" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="125" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="128">
         <f>C11+0.144+0.159</f>
@@ -5626,13 +5645,13 @@
         <v>10.74</v>
       </c>
       <c r="E12" s="123">
-        <f t="shared" si="0"/>
+        <f>D12/C12</f>
         <v>1.0018656716417911</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="121" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" s="127">
         <v>10.73</v>
@@ -5640,9 +5659,9 @@
       <c r="D13" s="121"/>
       <c r="E13" s="123"/>
     </row>
-    <row r="14" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="125" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="126">
         <f>C13+0.144+0.159</f>
@@ -5652,19 +5671,19 @@
         <v>11.06</v>
       </c>
       <c r="E14" s="123">
-        <f t="shared" si="0"/>
+        <f>D14/C14</f>
         <v>1.0024472038430163</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="121"/>
       <c r="C15" s="126"/>
       <c r="D15" s="121"/>
       <c r="E15" s="123"/>
     </row>
-    <row r="16" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" s="121">
         <f>C22*0.0738</f>
@@ -5674,13 +5693,13 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="E16" s="123">
-        <f t="shared" si="0"/>
+        <f>D16/C16</f>
         <v>0.80407397480568199</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="122" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="121">
         <v>6.8999999999999999E-3</v>
@@ -5689,13 +5708,13 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="E17" s="123">
-        <f t="shared" si="0"/>
+        <f>D17/C17</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="121" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C18" s="121">
         <v>0.53</v>
@@ -5704,13 +5723,13 @@
         <v>0.505</v>
       </c>
       <c r="E18" s="123">
-        <f t="shared" si="0"/>
+        <f>D18/C18</f>
         <v>0.95283018867924529</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="122" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="121">
         <f>C22*0.04</f>
@@ -5720,32 +5739,32 @@
         <v>3.6499999999999998E-2</v>
       </c>
       <c r="E19" s="123">
-        <f t="shared" si="0"/>
+        <f>D19/C19</f>
         <v>1.0027472527472527</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="121" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="121">
         <v>0.64549999999999996</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="123">
-        <f t="shared" si="0"/>
+        <f>D20/C20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="121"/>
       <c r="C21" s="121"/>
       <c r="D21" s="121"/>
       <c r="E21" s="123"/>
     </row>
-    <row r="22" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="121" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" s="121">
         <v>0.91</v>
@@ -5754,13 +5773,13 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="E22" s="123">
-        <f t="shared" si="0"/>
+        <f>D22/C22</f>
         <v>1.0032967032967033</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="122" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" s="121">
         <v>1.2649999999999999</v>
@@ -5769,46 +5788,21 @@
         <v>1.288</v>
       </c>
       <c r="E23" s="123">
-        <f t="shared" si="0"/>
+        <f>D23/C23</f>
         <v>1.0181818181818183</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="121" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="121">
         <v>6.3E-3</v>
       </c>
       <c r="D24" s="121"/>
       <c r="E24" s="124">
-        <f t="shared" si="0"/>
+        <f>D24/C24</f>
         <v>0</v>
-      </c>
-      <c r="H24">
-        <f>0.031/15</f>
-        <v>2.0666666666666667E-3</v>
-      </c>
-      <c r="J24">
-        <f>0.0069/0.6</f>
-        <v>1.15E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J26">
-        <f>0.0069/0.015</f>
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H27">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H28">
-        <f>1.223-1.265</f>
-        <v>-4.1999999999999815E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7654,7 +7648,7 @@
     </row>
     <row r="15" spans="1:9" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Data_inputs/MISERS_PlanInfo_2015.xlsx
+++ b/Data_inputs/MISERS_PlanInfo_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Death_dec" sheetId="5" r:id="rId19"/>
     <sheet name="Calibration" sheetId="29" r:id="rId20"/>
     <sheet name="DC " sheetId="30" r:id="rId21"/>
+    <sheet name="Fiscal" sheetId="31" r:id="rId22"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="192">
   <si>
     <t>Notes</t>
   </si>
@@ -1197,6 +1198,15 @@
   </si>
   <si>
     <t>2016 year end</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>GenFund.original</t>
+  </si>
+  <si>
+    <t>D39</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1485,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,12 +1831,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -2763,6 +2776,357 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228024</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456832C1-F984-4FDE-BBC6-A59A3D2D68B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="333375"/>
+          <a:ext cx="4609524" cy="3123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>56319</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>189471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EC30A8-A913-49C7-B2ED-485731FBC7A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16040100" y="333375"/>
+          <a:ext cx="6647619" cy="8228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>37759</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F23AD0-BA0E-4B16-831B-04E2134319AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="3448050"/>
+          <a:ext cx="2723809" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>113526</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>37895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3FA8D3-4A86-4C37-8179-C2B613AF2597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15944850" y="8867775"/>
+          <a:ext cx="6190476" cy="1638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>227850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF40BCD2-ACC9-40D3-A1B5-0864A299AF41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="5972175"/>
+          <a:ext cx="6000000" cy="1200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>303612</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>170576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1DE5BD-ECFB-48BD-A83E-E9839C9144D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="1562100"/>
+          <a:ext cx="9504762" cy="6990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5F3123-3780-47DF-A78A-94F5704986F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="676275"/>
+          <a:ext cx="8362950" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Consensus</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Revenue Agreement,   Jan, 2017</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>http://www.house.mi.gov/hfa/PDF/Revenue_Forecast/CREC_Final_Memo_Jan17.pdf</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4605,8 +4969,8 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
     </row>
     <row r="8" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -5514,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5536,7 +5900,7 @@
       <c r="E3" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="129" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5821,6 +6185,243 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2015</v>
+      </c>
+      <c r="D6" s="131">
+        <v>10015400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2016</v>
+      </c>
+      <c r="D7" s="132">
+        <v>10290100000</v>
+      </c>
+      <c r="G7" s="133"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2017</v>
+      </c>
+      <c r="D8" s="132">
+        <v>10522700000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="132">
+        <v>10589300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10" s="132"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="132"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="132"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>2048</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data_inputs/MISERS_PlanInfo_2015.xlsx
+++ b/Data_inputs/MISERS_PlanInfo_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -1834,12 +1834,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3121,7 +3121,6 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>http://www.house.mi.gov/hfa/PDF/Revenue_Forecast/CREC_Final_Memo_Jan17.pdf</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4969,8 +4968,8 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="130"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="133"/>
     </row>
     <row r="8" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -6192,7 +6191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -6234,7 +6233,7 @@
       <c r="C6">
         <v>2015</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="130">
         <v>10015400000</v>
       </c>
     </row>
@@ -6242,16 +6241,16 @@
       <c r="C7">
         <v>2016</v>
       </c>
-      <c r="D7" s="132">
+      <c r="D7" s="131">
         <v>10290100000</v>
       </c>
-      <c r="G7" s="133"/>
+      <c r="G7" s="132"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2017</v>
       </c>
-      <c r="D8" s="132">
+      <c r="D8" s="131">
         <v>10522700000</v>
       </c>
     </row>
@@ -6259,7 +6258,7 @@
       <c r="C9">
         <v>2018</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="131">
         <v>10589300000</v>
       </c>
     </row>
@@ -6267,19 +6266,19 @@
       <c r="C10">
         <v>2019</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="131"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2020</v>
       </c>
-      <c r="D11" s="132"/>
+      <c r="D11" s="131"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>2021</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="131"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13">
@@ -6527,7 +6526,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -6723,7 +6722,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data_inputs/MISERS_PlanInfo_2015.xlsx
+++ b/Data_inputs/MISERS_PlanInfo_2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="711" firstSheet="15" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -6191,8 +6191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6526,7 +6526,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
